--- a/LsuSamsungPaper/Figure/PerormanceData/ResultsToInclude%2B7dns%2BCeres.xlsx
+++ b/LsuSamsungPaper/Figure/PerormanceData/ResultsToInclude%2B7dns%2BCeres.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>yarn.memory=28GB, map.memory=3.5GB, reduce.memory=3.5GB, map.java=3GB, reduce.java=3GB,                           -w 115, -slot 240</t>
   </si>
   <si>
-    <t>yarn.memory=30GB, map.memory=2GB, reduce.memory=4GB, map.java=1.6GB, reduce.java=3.2GB,                       -w 220, -slot 210 </t>
+    <t>yarn.memory=30GB, map.memory=2GB, reduce.memory=4GB, map.java=1.6GB, reduce.java=3.2GB,                       -w 220, -slot 210</t>
   </si>
   <si>
     <t>BG</t>
@@ -242,7 +242,7 @@
     <t>SuperMikeII (32GBMem+1HDD) [Baseline]</t>
   </si>
   <si>
-    <t>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_as_VM): 2DN </t>
+    <t>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_as_VM): 2DN</t>
   </si>
   <si>
     <t>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</t>
@@ -257,7 +257,7 @@
     <t>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</t>
   </si>
   <si>
-    <t>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_asVM): 2DN </t>
+    <t>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_asVM): 2DN</t>
   </si>
   <si>
     <t>SwatIII-(64GBMem+2SSDs):7DNs</t>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>SwatIII-(64GBMemory+2SSD): 7DN</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>127DN</t>
@@ -382,6 +379,7 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -404,18 +402,21 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -423,6 +424,7 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -430,6 +432,7 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -437,11 +440,11 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -545,7 +548,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,10 +661,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,15 +757,15 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF8AA64F"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF93A9CE"/>
+      <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FFAB4744"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFDC853E"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -775,14 +774,14 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FFD09493"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4672A8"/>
@@ -794,7 +793,7 @@
       <rgbColor rgb="FF725990"/>
       <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF4299B0"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -806,7 +805,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -956,11 +955,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="46459688"/>
-        <c:axId val="13350003"/>
+        <c:axId val="44846873"/>
+        <c:axId val="78192222"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46459688"/>
+        <c:axId val="44846873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,14 +976,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13350003"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="78192222"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13350003"/>
+        <c:axId val="78192222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1010,1502 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46459688"/>
+        <c:crossAx val="44846873"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Perf/$ including Ceres</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4672a8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89159360077487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.90129367842381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09958279363415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2938455646045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.10979197821303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.24441136300144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ab4744"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00611767646243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.951861473882919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.67770727888124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.89619825297542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07432243666008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.33549265996746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8aa64f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07743239721465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.858242595935823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.08221002440559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.24201602928373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.29512771761746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.10879148338236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="725990"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15305292040213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01222798245357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.67050177452164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86631802159912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.17074447627608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.21529242810912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4299b0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc853e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="93a9ce"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="d09493"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>------------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CeresII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="51896112"/>
+        <c:axId val="92564439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51896112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="92564439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92564439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="51896112"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Normalized performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4672a8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.512020905923345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.326829268292683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.85766550522648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92839721254355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87020905923345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ab4744"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96264631043257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.652824427480916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.41811704834606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.52732824427481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.885089058524173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaffolding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8aa64f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898929224340559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.724035866631845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26543048663707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.36441194393662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.799938094270818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="725990"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.839974863226379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.613891764010055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26543048663707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.36441194393662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.845774393349434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4299b0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc853e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="93a9ce"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-----------------------</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="44176742"/>
+        <c:axId val="80336788"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44176742"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="80336788"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80336788"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="44176742"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD):127DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMem+4SSD):15DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.10065851364064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898417372101583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.960227454237613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMem+4HDD):15DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.12814884498798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02686786897313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05782193399994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="26506891"/>
+        <c:axId val="72446790"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26506891"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="72446790"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72446790"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="26506891"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1058,11 +2552,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$39</c:f>
+              <c:f>Sheet2!$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMemory+1HDD): Baseline</c:v>
+                  <c:v>SuperMikeII (32GBMem+1HDD):127DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1077,7 +2571,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1087,14 +2581,14 @@
                   <c:v>GraphSimplification</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$39:$R$39</c:f>
+              <c:f>Sheet2!$H$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1116,11 +2610,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$40</c:f>
+              <c:f>Sheet2!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD)</c:v>
+                  <c:v>SwatIII-FullScaleupSSD (256GBMem+4SSD):15DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1135,7 +2629,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1145,25 +2639,25 @@
                   <c:v>GraphSimplification</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$40:$R$40</c:f>
+              <c:f>Sheet2!$H$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.512020905923345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96264631043257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.898929224340559</c:v>
+                  <c:v>4.3555763847202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33605246127448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.99256942560622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,11 +2668,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$41</c:f>
+              <c:f>Sheet2!$G$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD)</c:v>
+                  <c:v>SwatIII-FullScaleupHDD (256GBMem+4HDD):15DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1193,7 +2687,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:f>Sheet2!$H$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1203,36 +2697,36 @@
                   <c:v>GraphSimplification</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$41:$R$41</c:f>
+              <c:f>Sheet2!$H$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.326829268292683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.652824427480916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.724035866631845</c:v>
+                  <c:v>4.58694199108193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0393565380916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.89189450789575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="61531953"/>
-        <c:axId val="8674302"/>
+        <c:axId val="83054371"/>
+        <c:axId val="92388776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61531953"/>
+        <c:axId val="83054371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +2743,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8674302"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="92388776"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8674302"/>
+        <c:axId val="92388776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +2777,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61531953"/>
+        <c:crossAx val="83054371"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1316,7 +2810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1330,11 +2824,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$44</c:f>
+              <c:f>Sheet1!$L$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SuperMikeII [32GBMem+1HDD+40Gbps Infiniband]</c:v>
+                  <c:v>SuperMikeII (32GBMemory+1HDD): Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1349,29 +2843,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$43:$N$43</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>115Workers_Graph-Simplification</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220 workers_Graph-Simplification</c:v>
+              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$44:$P$44</c:f>
+              <c:f>Sheet1!$P$39:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06412213740458</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +2882,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$45</c:f>
+              <c:f>Sheet1!$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Storage (32GBMem+1HDD+10Gbps Ethernet)</c:v>
+                  <c:v>SwatIII-Storage (32GBMem+1SSD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1401,40 +2901,104 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$43:$N$43</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>115Workers_Graph-Simplification</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220 workers_Graph-Simplification</c:v>
+              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$45:$P$45</c:f>
+              <c:f>Sheet1!$P$40:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.996844783715013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.08770923003348</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.512020905923345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96264631043257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.898929224340559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$38:$O$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$41:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.326829268292683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.652824427480916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.724035866631845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="87106248"/>
-        <c:axId val="62472117"/>
+        <c:axId val="17025716"/>
+        <c:axId val="96522782"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87106248"/>
+        <c:axId val="17025716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +3015,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62472117"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="96522782"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62472117"/>
+        <c:axId val="96522782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +3049,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87106248"/>
+        <c:crossAx val="17025716"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1518,7 +3082,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1532,11 +3096,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$6</c:f>
+              <c:f>Sheet1!$L$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
+                  <c:v>SuperMikeII [32GBMem+1HDD+40Gbps Infiniband]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,41 +3115,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$5:$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$43:$N$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>115Workers_Graph-Simplification</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220 workers_Graph-Simplification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$U$6</c:f>
+              <c:f>Sheet1!$O$44:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.06412213740458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,11 +3148,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$7</c:f>
+              <c:f>Sheet1!$L$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                  <c:v>SwatIII-Storage (32GBMem+1HDD+10Gbps Ethernet)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1615,116 +3167,40 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$5:$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$43:$N$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>115Workers_Graph-Simplification</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220 workers_Graph-Simplification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$7:$U$7</c:f>
+              <c:f>Sheet1!$O$45:$P$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.512020905923345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96264631043257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.898929224340559</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.839974863226379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$5:$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$8:$U$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.326829268292683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.652824427480916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.724035866631845</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.613891764010055</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.996844783715013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08770923003348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="72994536"/>
-        <c:axId val="53753653"/>
+        <c:axId val="76577630"/>
+        <c:axId val="37718489"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72994536"/>
+        <c:axId val="76577630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,14 +3217,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53753653"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="37718489"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53753653"/>
+        <c:axId val="37718489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +3251,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72994536"/>
+        <c:crossAx val="76577630"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1808,7 +3284,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1861,7 +3337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$6,Sheet1!$S$6,Sheet1!$T$6,Sheet1!$U$6</c:f>
+              <c:f>Sheet1!$R$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1886,11 +3362,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$10</c:f>
+              <c:f>Sheet1!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1925,21 +3401,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$10,Sheet1!$S$10,Sheet1!$T$10,Sheet1!$U$10</c:f>
+              <c:f>Sheet1!$R$7:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.85766550522648</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.41811704834606</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26543048663707</c:v>
+                  <c:v>0.512020905923345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96264631043257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.898929224340559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26543048663707</c:v>
+                  <c:v>0.839974863226379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,11 +3426,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$11</c:f>
+              <c:f>Sheet1!$L$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1989,32 +3465,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$11,Sheet1!$S$11,Sheet1!$T$11,Sheet1!$U$11</c:f>
+              <c:f>Sheet1!$R$8:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.92839721254355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.52732824427481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.36441194393662</c:v>
+                  <c:v>0.326829268292683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.652824427480916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.724035866631845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.36441194393662</c:v>
+                  <c:v>0.613891764010055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="64143626"/>
-        <c:axId val="68256915"/>
+        <c:axId val="41025571"/>
+        <c:axId val="80452582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64143626"/>
+        <c:axId val="41025571"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,14 +3507,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68256915"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="80452582"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68256915"/>
+        <c:axId val="80452582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +3541,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64143626"/>
+        <c:crossAx val="41025571"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2098,7 +3574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2112,11 +3588,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$15</c:f>
+              <c:f>Sheet1!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2131,9 +3607,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$14:$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GraphConstruction</c:v>
                 </c:pt>
@@ -2142,13 +3618,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Scaffolding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$15:$S$15</c:f>
+              <c:f>Sheet1!$R$6,Sheet1!$S$6,Sheet1!$T$6,Sheet1!$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2162,7 +3641,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,11 +3652,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$16</c:f>
+              <c:f>Sheet1!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2HDD+32GBMem</c:v>
+                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2192,9 +3671,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$14:$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GraphConstruction</c:v>
                 </c:pt>
@@ -2203,27 +3682,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Scaffolding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$S$16</c:f>
+              <c:f>Sheet1!$R$10,Sheet1!$S$10,Sheet1!$T$10,Sheet1!$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.771602787456446</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.970381679389313</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.980586750239401</c:v>
+                  <c:v>1.85766550522648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41811704834606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26543048663707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>1.26543048663707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,11 +3716,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$17</c:f>
+              <c:f>Sheet1!$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4HDD+32GBMem</c:v>
+                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2253,9 +3735,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$14:$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$M$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GraphConstruction</c:v>
                 </c:pt>
@@ -2264,99 +3746,41 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Scaffolding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$S$17</c:f>
+              <c:f>Sheet1!$R$11,Sheet1!$S$11,Sheet1!$T$11,Sheet1!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.580662020905923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97882951653944</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.904326630103595</c:v>
+                  <c:v>1.92839721254355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.52732824427481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.36441194393662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1SSD+32GBMem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="558ed5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$14:$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaffolding</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$18:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.512020905923345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96264631043257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.898929224340559</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
+                  <c:v>1.36441194393662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="38643398"/>
-        <c:axId val="92756968"/>
+        <c:axId val="74093683"/>
+        <c:axId val="33857582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38643398"/>
+        <c:axId val="74093683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,14 +3797,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92756968"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="33857582"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92756968"/>
+        <c:axId val="33857582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +3831,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38643398"/>
+        <c:crossAx val="74093683"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2440,7 +3864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2454,18 +3878,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$74</c:f>
+              <c:f>Sheet1!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2473,46 +3897,37 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$73:$V$73</c:f>
+              <c:f>Sheet1!$P$15:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2524,18 +3939,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$75</c:f>
+              <c:f>Sheet1!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                  <c:v>2HDD+32GBMem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="808080"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2543,46 +3958,37 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$74:$V$74</c:f>
+              <c:f>Sheet1!$P$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.771602787456446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.970381679389313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.980586750239401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2594,18 +4000,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$76</c:f>
+              <c:f>Sheet1!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                  <c:v>4HDD+32GBMem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
+              <a:srgbClr val="bfbfbf"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2613,46 +4019,37 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$75:$V$75</c:f>
+              <c:f>Sheet1!$P$17:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.89159360077487</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.00611767646243</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.07743239721465</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.580662020905923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97882951653944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.904326630103595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.15305292040213</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2664,18 +4061,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$77</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_asVM): 2DN </c:v>
+                  <c:v>1SSD+32GBMem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8064a2"/>
+              <a:srgbClr val="558ed5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2683,186 +4080,37 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
+              <c:f>Sheet1!$M$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstruction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimplification</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaffolding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$76:$V$76</c:f>
+              <c:f>Sheet1!$P$18:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.90129367842381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.951861473882919</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.858242595935823</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.512020905923345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96264631043257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.898929224340559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01222798245357</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$78</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4bacc6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$77:$V$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$79</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="f79646"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$73:$P$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$78:$V$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.09958279363415</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.67770727888124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.08221002440559</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.67050177452164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2870,11 +4118,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="74640551"/>
-        <c:axId val="43648856"/>
+        <c:axId val="69208867"/>
+        <c:axId val="34648548"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74640551"/>
+        <c:axId val="69208867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,14 +4139,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43648856"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="34648548"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43648856"/>
+        <c:axId val="34648548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +4173,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74640551"/>
+        <c:crossAx val="69208867"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2958,7 +4206,525 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$73:$V$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$74:$V$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$75:$V$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.89159360077487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00611767646243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07743239721465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15305292040213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-Storage-v2 (32GBMem+7SSD+1SSD_asVM): 2DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8064a2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$76:$V$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.90129367842381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.951861473882919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.858242595935823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01222798245357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4bacc6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$77:$V$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f79646"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$73:$P$73</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GraphConstr.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GraphSimpli.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scaff.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EntirePipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$78:$V$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.09958279363415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.67770727888124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.08221002440559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.67050177452164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="65559157"/>
+        <c:axId val="39253844"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65559157"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="39253844"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39253844"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65559157"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3057,16 +4823,16 @@
                   <c:v>1.90129367842381</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.09958279363415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2938455646045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.10979197821303</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.09958279363415</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2938455646045</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.10979197821303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,16 +4905,16 @@
                   <c:v>0.951861473882919</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.67770727888124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.89619825297542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07432243666008</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.67770727888124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.89619825297542</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.07432243666008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,16 +4987,16 @@
                   <c:v>0.858242595935823</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.08221002440559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.24201602928373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.29512771761746</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.08221002440559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.24201602928373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.29512771761746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,16 +5069,16 @@
                   <c:v>1.01222798245357</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.67050177452164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86631802159912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.17074447627608</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.67050177452164</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.86631802159912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.17074447627608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3321,17 +5087,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4299b0"/>
@@ -3369,30 +5124,10 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="dc853e"/>
@@ -3430,30 +5165,10 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="93a9ce"/>
@@ -3491,22 +5206,13 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="91492609"/>
-        <c:axId val="66333730"/>
+        <c:axId val="62989243"/>
+        <c:axId val="59486753"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91492609"/>
+        <c:axId val="62989243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,14 +5229,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66333730"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="59486753"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66333730"/>
+        <c:axId val="59486753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +5263,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91492609"/>
+        <c:crossAx val="62989243"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3590,7 +5296,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3977,17 +5683,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4299b0"/>
@@ -4028,30 +5723,10 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="dc853e"/>
@@ -4092,30 +5767,10 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="93a9ce"/>
@@ -4156,30 +5811,10 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="d09493"/>
@@ -4220,22 +5855,13 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:axId val="28738686"/>
-        <c:axId val="22800878"/>
+        <c:axId val="61370366"/>
+        <c:axId val="61290601"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28738686"/>
+        <c:axId val="61370366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,14 +5878,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22800878"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="61290601"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22800878"/>
+        <c:axId val="61290601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,1914 +5912,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28738686"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Perf/$ including Ceres</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstr.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4672a8"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.89159360077487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.90129367842381</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.09958279363415</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2938455646045</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.10979197821303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.24441136300144</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphSimpli.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ab4744"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.00611767646243</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.951861473882919</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.67770727888124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.89619825297542</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.07432243666008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.33549265996746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scaff.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="8aa64f"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.07743239721465</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.858242595935823</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.08221002440559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.24201602928373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.29512771761746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.10879148338236</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="725990"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.15305292040213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.01222798245357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.67050177452164</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.86631802159912</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.17074447627608</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.21529242810912</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4299b0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="dc853e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="93a9ce"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="d09493"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [Baseline]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>------------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMemory+2SSD): 7DN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CeresII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="62027595"/>
-        <c:axId val="52755662"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62027595"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="52755662"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52755662"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="62027595"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Normalized performance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4672a8"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.512020905923345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.326829268292683</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.85766550522648</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.92839721254355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87020905923345</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ab4744"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96264631043257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.652824427480916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.41811704834606</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.52732824427481</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.885089058524173</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scaffolding</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="8aa64f"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.898929224340559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.724035866631845</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26543048663707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.36441194393662</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.799938094270818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="725990"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.839974863226379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.613891764010055</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26543048663707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.36441194393662</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.845774393349434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4299b0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="dc853e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="93a9ce"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD): 15DN [BaseLine]</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SwatIII-Storage (32GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SwatIII-Memory (256GBMem+1SSD): 15DN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-----------------------</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SwatIII-FullScaleup-SSD (256GBMemory+7SSD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SwatIII-FullScaleup-HDD (256GBMemory+7HDD): 2DN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SwatIII-(64GBMem+2SSDs): 7DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="75060499"/>
-        <c:axId val="13156978"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75060499"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="13156978"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="13156978"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="75060499"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD):127DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMem+4SSD):15DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="808080"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$7:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.10065851364064</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.898417372101583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.960227454237613</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMem+4HDD):15DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.12814884498798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.02686786897313</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.05782193399994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="56162130"/>
-        <c:axId val="29153634"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="56162130"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="29153634"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29153634"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="56162130"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SuperMikeII (32GBMem+1HDD):127DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$17:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupSSD (256GBMem+4SSD):15DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="808080"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$18:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.3555763847202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.33605246127448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.99256942560622</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SwatIII-FullScaleupHDD (256GBMem+4HDD):15DN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>GraphConstruction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GraphSimplification</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EntirePipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$19:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.58694199108193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0393565380916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.89189450789575</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="8647471"/>
-        <c:axId val="15541939"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="8647471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="15541939"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="15541939"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8647471"/>
+        <c:crossAx val="61370366"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6231,15 +5950,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>328680</xdr:colOff>
+      <xdr:colOff>355680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6247,8 +5966,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18169560" y="7052400"/>
-        <a:ext cx="5847120" cy="1628640"/>
+        <a:off x="18822600" y="7043760"/>
+        <a:ext cx="5847120" cy="1628280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6261,15 +5980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6277,8 +5996,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18105840" y="8754480"/>
-        <a:ext cx="6339240" cy="2457000"/>
+        <a:off x="18758880" y="8745840"/>
+        <a:ext cx="6339240" cy="2456640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6291,15 +6010,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>291960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>613800</xdr:colOff>
+      <xdr:colOff>640440</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6307,8 +6026,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2552760" y="10131840"/>
-        <a:ext cx="5687280" cy="1698840"/>
+        <a:off x="2579760" y="10122840"/>
+        <a:ext cx="5686920" cy="1698840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6321,15 +6040,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>368280</xdr:rowOff>
+      <xdr:rowOff>359280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6337,8 +6056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19704960" y="368280"/>
-        <a:ext cx="9686880" cy="2423160"/>
+        <a:off x="20358000" y="359280"/>
+        <a:ext cx="9686880" cy="2422800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6351,15 +6070,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>279720</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6367,8 +6086,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18999720" y="11192400"/>
-        <a:ext cx="11296440" cy="3680280"/>
+        <a:off x="19653120" y="11183760"/>
+        <a:ext cx="11295720" cy="3679560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6381,15 +6100,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6397,8 +6116,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18742320" y="2918520"/>
-        <a:ext cx="8308800" cy="3699000"/>
+        <a:off x="19395720" y="2909520"/>
+        <a:ext cx="8308440" cy="3699000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6411,15 +6130,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>516600</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6427,8 +6146,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19091520" y="14961240"/>
-        <a:ext cx="11468160" cy="3009600"/>
+        <a:off x="19744920" y="14952240"/>
+        <a:ext cx="11467440" cy="3009240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6441,15 +6160,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>476640</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>624600</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6457,8 +6176,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19080000" y="18255600"/>
-        <a:ext cx="11561040" cy="2825280"/>
+        <a:off x="19733400" y="18246600"/>
+        <a:ext cx="11560320" cy="2825280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6471,15 +6190,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>348840</xdr:rowOff>
+      <xdr:rowOff>340200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>626760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6487,8 +6206,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18669600" y="4558680"/>
-        <a:ext cx="10448280" cy="3768480"/>
+        <a:off x="19323000" y="4550040"/>
+        <a:ext cx="10447560" cy="3767760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6501,15 +6220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>367920</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6517,8 +6236,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19090440" y="21263400"/>
-        <a:ext cx="10530720" cy="3408480"/>
+        <a:off x="19743840" y="21254760"/>
+        <a:ext cx="10530360" cy="3408120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6531,15 +6250,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6547,8 +6266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8616600" y="5720400"/>
-        <a:ext cx="11555280" cy="3166560"/>
+        <a:off x="8643960" y="5711400"/>
+        <a:ext cx="12180960" cy="3166560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6566,15 +6285,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>626400</xdr:colOff>
+      <xdr:colOff>653040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6582,8 +6301,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9566280" y="114840"/>
-        <a:ext cx="7225200" cy="2143080"/>
+        <a:off x="9593280" y="105840"/>
+        <a:ext cx="7224840" cy="2142720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6596,15 +6315,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>626760</xdr:colOff>
+      <xdr:colOff>653400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6612,8 +6331,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9556920" y="2858040"/>
-        <a:ext cx="7234920" cy="2495160"/>
+        <a:off x="9583920" y="2849040"/>
+        <a:ext cx="7234560" cy="2494800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6631,16 +6350,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H34" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L97" activeCellId="0" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.417004048583"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="0" width="14.7449392712551"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3765182186235"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.7449392712551"/>
@@ -7100,7 +6819,7 @@
       <c r="O13" s="26" t="n">
         <v>11361</v>
       </c>
-      <c r="P13" s="28" t="n">
+      <c r="P13" s="13" t="n">
         <f aca="false">SUM(M13:O13)</f>
         <v>25469</v>
       </c>
@@ -7170,13 +6889,13 @@
       <c r="D15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="28" t="n">
         <v>3573</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="28" t="n">
         <v>9458</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="28" t="n">
         <v>10326</v>
       </c>
       <c r="H15" s="22" t="n">
@@ -7218,12 +6937,12 @@
       <c r="B16" s="7"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="L16" s="0" t="s">
         <v>30</v>
       </c>
@@ -7254,12 +6973,12 @@
       <c r="B17" s="7"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="L17" s="0" t="s">
         <v>31</v>
       </c>
@@ -7290,22 +7009,22 @@
       <c r="B18" s="7"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="L18" s="0" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="22" t="n">
         <v>2939</v>
       </c>
-      <c r="N18" s="29" t="n">
+      <c r="N18" s="28" t="n">
         <v>9458</v>
       </c>
-      <c r="O18" s="29" t="n">
+      <c r="O18" s="28" t="n">
         <v>10326</v>
       </c>
       <c r="P18" s="0" t="n">
@@ -7372,7 +7091,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -7384,13 +7103,13 @@
       <c r="D21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="32" t="n">
+      <c r="E21" s="31" t="n">
         <v>3398</v>
       </c>
-      <c r="F21" s="32" t="n">
+      <c r="F21" s="31" t="n">
         <v>6331</v>
       </c>
-      <c r="G21" s="32" t="n">
+      <c r="G21" s="31" t="n">
         <v>8347</v>
       </c>
       <c r="H21" s="22" t="n">
@@ -7428,7 +7147,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="7"/>
       <c r="C22" s="21" t="s">
         <v>38</v>
@@ -7436,22 +7155,22 @@
       <c r="D22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="32" t="n">
+      <c r="E22" s="31" t="n">
         <v>3384</v>
       </c>
-      <c r="F22" s="32" t="n">
+      <c r="F22" s="31" t="n">
         <v>6042</v>
       </c>
-      <c r="G22" s="32" t="n">
+      <c r="G22" s="31" t="n">
         <v>7552</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="32" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="0" t="s">
@@ -7460,10 +7179,10 @@
       <c r="M22" s="22" t="n">
         <v>2939</v>
       </c>
-      <c r="N22" s="29" t="n">
+      <c r="N22" s="28" t="n">
         <v>9458</v>
       </c>
-      <c r="O22" s="29" t="n">
+      <c r="O22" s="28" t="n">
         <v>10326</v>
       </c>
       <c r="P22" s="0" t="n">
@@ -7480,7 +7199,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="7"/>
       <c r="C23" s="21" t="s">
         <v>40</v>
@@ -7488,27 +7207,27 @@
       <c r="D23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="34" t="n">
+      <c r="E23" s="33" t="n">
         <v>3640</v>
       </c>
-      <c r="F23" s="34" t="n">
+      <c r="F23" s="33" t="n">
         <v>6730</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="7"/>
       <c r="C24" s="21" t="s">
         <v>41</v>
@@ -7516,42 +7235,42 @@
       <c r="D24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="32" t="n">
+      <c r="E24" s="31" t="n">
         <v>3474</v>
       </c>
-      <c r="F24" s="32" t="n">
+      <c r="F24" s="31" t="n">
         <v>6145</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="G24" s="31" t="n">
         <v>8517</v>
       </c>
-      <c r="H24" s="35" t="n">
+      <c r="H24" s="34" t="n">
         <v>2240</v>
       </c>
-      <c r="I24" s="35" t="n">
+      <c r="I24" s="34" t="n">
         <v>6534</v>
       </c>
-      <c r="J24" s="35" t="n">
+      <c r="J24" s="34" t="n">
         <v>8230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="21"/>
@@ -7560,15 +7279,15 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="21" t="s">
         <v>45</v>
       </c>
@@ -7581,22 +7300,22 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="33" t="n">
+      <c r="H28" s="32" t="n">
         <v>2132</v>
       </c>
-      <c r="I28" s="33" t="n">
+      <c r="I28" s="32" t="n">
         <v>6414</v>
       </c>
-      <c r="J28" s="33" t="n">
+      <c r="J28" s="32" t="n">
         <v>8317</v>
       </c>
-      <c r="K28" s="38" t="n">
+      <c r="K28" s="37" t="n">
         <v>1876</v>
       </c>
-      <c r="L28" s="38" t="n">
+      <c r="L28" s="37" t="n">
         <v>7496</v>
       </c>
-      <c r="M28" s="38" t="n">
+      <c r="M28" s="37" t="n">
         <v>11013</v>
       </c>
     </row>
@@ -7612,7 +7331,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="38" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="5" t="n">
@@ -7636,7 +7355,7 @@
       <c r="M32" s="5" t="n">
         <v>5687</v>
       </c>
-      <c r="N32" s="30" t="n">
+      <c r="N32" s="29" t="n">
         <v>6267</v>
       </c>
       <c r="O32" s="0" t="n">
@@ -7690,7 +7409,7 @@
       <c r="L35" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="29" t="n">
+      <c r="M35" s="28" t="n">
         <v>3573</v>
       </c>
       <c r="N35" s="22" t="n">
@@ -7752,10 +7471,10 @@
       <c r="M40" s="22" t="n">
         <v>2939</v>
       </c>
-      <c r="N40" s="29" t="n">
+      <c r="N40" s="28" t="n">
         <v>9458</v>
       </c>
-      <c r="O40" s="29" t="n">
+      <c r="O40" s="28" t="n">
         <v>10326</v>
       </c>
       <c r="P40" s="0" t="n">
@@ -7775,13 +7494,13 @@
       <c r="L41" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="40" t="n">
+      <c r="M41" s="39" t="n">
         <v>1876</v>
       </c>
-      <c r="N41" s="35" t="n">
+      <c r="N41" s="34" t="n">
         <v>6414</v>
       </c>
-      <c r="O41" s="35" t="n">
+      <c r="O41" s="34" t="n">
         <v>8317</v>
       </c>
       <c r="P41" s="0" t="n">
@@ -7807,7 +7526,7 @@
       <c r="N42" s="0" t="n">
         <v>8696</v>
       </c>
-      <c r="O42" s="41" t="n">
+      <c r="O42" s="40" t="n">
         <f aca="false">5789/63*100</f>
         <v>9188.88888888889</v>
       </c>
@@ -7898,7 +7617,7 @@
       <c r="S49" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="T49" s="42" t="s">
+      <c r="T49" s="41" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7927,7 +7646,7 @@
       <c r="S50" s="0" t="n">
         <v>3040</v>
       </c>
-      <c r="T50" s="42" t="n">
+      <c r="T50" s="41" t="n">
         <v>389</v>
       </c>
     </row>
@@ -7957,7 +7676,7 @@
         <f aca="false">P51*2</f>
         <v>558</v>
       </c>
-      <c r="T51" s="42" t="n">
+      <c r="T51" s="41" t="n">
         <v>232</v>
       </c>
     </row>
@@ -7990,7 +7709,7 @@
         <f aca="false">O52*2</f>
         <v>354</v>
       </c>
-      <c r="T52" s="42" t="n">
+      <c r="T52" s="41" t="n">
         <v>140</v>
       </c>
       <c r="U52" s="0" t="n">
@@ -8030,7 +7749,7 @@
         <f aca="false">SUM(S50:S52)</f>
         <v>3952</v>
       </c>
-      <c r="T53" s="42" t="n">
+      <c r="T53" s="41" t="n">
         <f aca="false">SUM(T50:T52)</f>
         <v>761</v>
       </c>
@@ -8064,7 +7783,7 @@
       <c r="S54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T54" s="42" t="n">
+      <c r="T54" s="41" t="n">
         <v>32</v>
       </c>
     </row>
@@ -8078,14 +7797,14 @@
       <c r="N55" s="0" t="n">
         <v>52240</v>
       </c>
-      <c r="O55" s="43" t="n">
+      <c r="O55" s="42" t="n">
         <f aca="false">O53*(O54)</f>
         <v>81735</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>10270</v>
       </c>
-      <c r="Q55" s="43" t="n">
+      <c r="Q55" s="42" t="n">
         <f aca="false">Q53*Q54</f>
         <v>13022</v>
       </c>
@@ -8096,7 +7815,7 @@
         <f aca="false">S53*S54</f>
         <v>27664</v>
       </c>
-      <c r="T55" s="42" t="n">
+      <c r="T55" s="41" t="n">
         <f aca="false">T53*T54</f>
         <v>24352</v>
       </c>
@@ -8409,11 +8128,11 @@
       <c r="N71" s="0" t="n">
         <v>8696</v>
       </c>
-      <c r="O71" s="41" t="n">
+      <c r="O71" s="40" t="n">
         <f aca="false">5789/63*100</f>
         <v>9188.88888888889</v>
       </c>
-      <c r="P71" s="41" t="n">
+      <c r="P71" s="40" t="n">
         <f aca="false">SUM(M71:O71)</f>
         <v>22879.8888888889</v>
       </c>
@@ -8550,37 +8269,45 @@
       <c r="L77" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="M77" s="0" t="e">
+      <c r="M77" s="0" t="inlineStr">
         <f aca="false">1/M68/M60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N77" s="0" t="e">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N77" s="0" t="inlineStr">
         <f aca="false">1/N68/N60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" s="0" t="e">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O77" s="0" t="inlineStr">
         <f aca="false">1/O68/O60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P77" s="0" t="e">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P77" s="0" t="inlineStr">
         <f aca="false">1/P68/P60</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="Q77" s="0" t="e">
         <f aca="false">M77/M74</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R77" s="0" t="e">
         <f aca="false">N77/N74</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S77" s="0" t="e">
         <f aca="false">O77/O74</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T77" s="0" t="e">
         <f aca="false">P77/P74</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,11 +8456,6 @@
       <c r="T81" s="0" t="n">
         <f aca="false">P81/P74</f>
         <v>2.21529242810912</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8773,10 +8495,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8797,7 +8519,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>9567</v>
@@ -8809,10 +8531,14 @@
         <f aca="false">H1+I1</f>
         <v>31303</v>
       </c>
+      <c r="K1" s="0" t="n">
+        <f aca="false">J1/3600</f>
+        <v>8.69527777777778</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>10530</v>
@@ -8824,10 +8550,14 @@
         <f aca="false">H2+I2</f>
         <v>30058</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2/3600</f>
+        <v>8.34944444444444</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>10793</v>
@@ -8839,6 +8569,10 @@
         <f aca="false">H3+I3</f>
         <v>33113</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3/3600</f>
+        <v>9.19805555555556</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="0" t="s">
@@ -8853,7 +8587,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">H1/H1</f>
@@ -8870,7 +8604,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">H2/H1</f>
@@ -8887,7 +8621,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">H3/H1</f>
@@ -8904,7 +8638,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>3386</v>
@@ -8922,12 +8656,12 @@
         <v>5980</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="43" t="n">
+        <v>87</v>
+      </c>
+      <c r="H11" s="42" t="n">
         <v>5980</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -8940,9 +8674,9 @@
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="43" t="n">
+        <v>88</v>
+      </c>
+      <c r="H12" s="42" t="n">
         <v>5540</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -8955,7 +8689,7 @@
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">1/H1/J10</f>
@@ -8972,7 +8706,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">1/H2/J11</f>
@@ -8989,7 +8723,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">1/H3/J12</f>
@@ -9079,71 +8813,71 @@
   <sheetData>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>96</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9178,27 +8912,27 @@
   <sheetData>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="44" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>113</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9308,7 +9042,7 @@
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="27" t="n">
         <f aca="false">AVERAGE(C6:C10)</f>
